--- a/Outcome/fig data/fig 4.xlsx
+++ b/Outcome/fig data/fig 4.xlsx
@@ -846,7 +846,7 @@
         <v>2015</v>
       </c>
       <c r="C43" t="n">
-        <v>27.9689186444212</v>
+        <v>26.7210916857994</v>
       </c>
     </row>
     <row r="44">
@@ -857,7 +857,7 @@
         <v>2016</v>
       </c>
       <c r="C44" t="n">
-        <v>27.0666954623431</v>
+        <v>26.0417418971774</v>
       </c>
     </row>
     <row r="45">
@@ -868,7 +868,7 @@
         <v>2017</v>
       </c>
       <c r="C45" t="n">
-        <v>29.998920804097</v>
+        <v>28.9855909812062</v>
       </c>
     </row>
     <row r="46">
@@ -879,7 +879,7 @@
         <v>2018</v>
       </c>
       <c r="C46" t="n">
-        <v>29.7733650085774</v>
+        <v>28.7591410516655</v>
       </c>
     </row>
     <row r="47">
@@ -890,7 +890,7 @@
         <v>2019</v>
       </c>
       <c r="C47" t="n">
-        <v>31.3522555772141</v>
+        <v>30.5707404879909</v>
       </c>
     </row>
     <row r="48">
@@ -901,7 +901,7 @@
         <v>2020</v>
       </c>
       <c r="C48" t="n">
-        <v>27.0666954623431</v>
+        <v>25.8152919676367</v>
       </c>
     </row>
     <row r="49">
@@ -912,7 +912,7 @@
         <v>2021</v>
       </c>
       <c r="C49" t="n">
-        <v>42.1789337621514</v>
+        <v>41.2138871764025</v>
       </c>
     </row>
     <row r="50">
@@ -923,7 +923,7 @@
         <v>2022</v>
       </c>
       <c r="C50" t="n">
-        <v>34.5100367144875</v>
+        <v>33.5145895720196</v>
       </c>
     </row>
     <row r="51">
@@ -934,7 +934,7 @@
         <v>2023</v>
       </c>
       <c r="C51" t="n">
-        <v>29.998920804097</v>
+        <v>28.3062411925842</v>
       </c>
     </row>
     <row r="52">
@@ -945,7 +945,7 @@
         <v>2015</v>
       </c>
       <c r="C52" t="n">
-        <v>5.85156365198566</v>
+        <v>5.8876981680575</v>
       </c>
     </row>
     <row r="53">
@@ -956,7 +956,7 @@
         <v>2016</v>
       </c>
       <c r="C53" t="n">
-        <v>11.2530070230493</v>
+        <v>11.096046547493</v>
       </c>
     </row>
     <row r="54">
@@ -967,7 +967,7 @@
         <v>2017</v>
       </c>
       <c r="C54" t="n">
-        <v>15.3040895513471</v>
+        <v>14.9456953496844</v>
       </c>
     </row>
     <row r="55">
@@ -978,7 +978,7 @@
         <v>2018</v>
       </c>
       <c r="C55" t="n">
-        <v>17.554690955957</v>
+        <v>16.3043949269285</v>
       </c>
     </row>
     <row r="56">
@@ -989,7 +989,7 @@
         <v>2019</v>
       </c>
       <c r="C56" t="n">
-        <v>51.9888924464879</v>
+        <v>15.6250451383065</v>
       </c>
     </row>
     <row r="57">
@@ -1000,7 +1000,7 @@
         <v>2020</v>
       </c>
       <c r="C57" t="n">
-        <v>58.5156365198566</v>
+        <v>58.6505317510344</v>
       </c>
     </row>
     <row r="58">

--- a/Outcome/fig data/fig 4.xlsx
+++ b/Outcome/fig data/fig 4.xlsx
@@ -395,7 +395,7 @@
         <v>2015</v>
       </c>
       <c r="C2" t="n">
-        <v>18.7953441518759</v>
+        <v>15.9</v>
       </c>
     </row>
     <row r="3">
@@ -406,7 +406,7 @@
         <v>2016</v>
       </c>
       <c r="C3" t="n">
-        <v>18.1159943632539</v>
+        <v>15.4</v>
       </c>
     </row>
     <row r="4">
@@ -417,7 +417,7 @@
         <v>2017</v>
       </c>
       <c r="C4" t="n">
-        <v>21.512743306364</v>
+        <v>17.9</v>
       </c>
     </row>
     <row r="5">
@@ -428,7 +428,7 @@
         <v>2018</v>
       </c>
       <c r="C5" t="n">
-        <v>16.9837447155505</v>
+        <v>14.8</v>
       </c>
     </row>
     <row r="6">
@@ -439,7 +439,7 @@
         <v>2019</v>
       </c>
       <c r="C6" t="n">
-        <v>17.4366445746318</v>
+        <v>15.4</v>
       </c>
     </row>
     <row r="7">
@@ -450,7 +450,7 @@
         <v>2020</v>
       </c>
       <c r="C7" t="n">
-        <v>26.0417418971774</v>
+        <v>23.6</v>
       </c>
     </row>
     <row r="8">
@@ -461,7 +461,7 @@
         <v>2021</v>
       </c>
       <c r="C8" t="n">
-        <v>39.6287376696178</v>
+        <v>38.6</v>
       </c>
     </row>
     <row r="9">
@@ -472,7 +472,7 @@
         <v>2022</v>
       </c>
       <c r="C9" t="n">
-        <v>42.5725867536466</v>
+        <v>41.8</v>
       </c>
     </row>
     <row r="10">
@@ -483,7 +483,7 @@
         <v>2023</v>
       </c>
       <c r="C10" t="n">
-        <v>16.3043949269285</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11">
@@ -494,7 +494,7 @@
         <v>2015</v>
       </c>
       <c r="C11" t="n">
-        <v>3.5546484783759</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="12">
@@ -505,7 +505,7 @@
         <v>2016</v>
       </c>
       <c r="C12" t="n">
-        <v>3.7768140082744</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="13">
@@ -516,7 +516,7 @@
         <v>2017</v>
       </c>
       <c r="C13" t="n">
-        <v>3.7768140082744</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="14">
@@ -527,7 +527,7 @@
         <v>2018</v>
       </c>
       <c r="C14" t="n">
-        <v>3.7768140082744</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="15">
@@ -538,7 +538,7 @@
         <v>2019</v>
       </c>
       <c r="C15" t="n">
-        <v>3.99897953817289</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="16">
@@ -549,7 +549,7 @@
         <v>2020</v>
       </c>
       <c r="C16" t="n">
-        <v>4.22114506807139</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="17">
@@ -560,7 +560,7 @@
         <v>2021</v>
       </c>
       <c r="C17" t="n">
-        <v>5.55413824746235</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="18">
@@ -571,7 +571,7 @@
         <v>2022</v>
       </c>
       <c r="C18" t="n">
-        <v>5.99846930725934</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="19">
@@ -582,7 +582,7 @@
         <v>2023</v>
       </c>
       <c r="C19" t="n">
-        <v>5.77630377736084</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="20">
@@ -593,7 +593,7 @@
         <v>2015</v>
       </c>
       <c r="C20" t="n">
-        <v>30.0950021058371</v>
+        <v>27.1</v>
       </c>
     </row>
     <row r="21">
@@ -604,7 +604,7 @@
         <v>2016</v>
       </c>
       <c r="C21" t="n">
-        <v>34.0781641492567</v>
+        <v>31.7</v>
       </c>
     </row>
     <row r="22">
@@ -615,7 +615,7 @@
         <v>2017</v>
       </c>
       <c r="C22" t="n">
-        <v>33.6355905888768</v>
+        <v>31.1</v>
       </c>
     </row>
     <row r="23">
@@ -626,7 +626,7 @@
         <v>2018</v>
       </c>
       <c r="C23" t="n">
-        <v>34.9633112700166</v>
+        <v>32.5</v>
       </c>
     </row>
     <row r="24">
@@ -637,7 +637,7 @@
         <v>2019</v>
       </c>
       <c r="C24" t="n">
-        <v>32.0865831275469</v>
+        <v>29.8</v>
       </c>
     </row>
     <row r="25">
@@ -648,7 +648,7 @@
         <v>2020</v>
       </c>
       <c r="C25" t="n">
-        <v>44.0360692578058</v>
+        <v>43.4</v>
       </c>
     </row>
     <row r="26">
@@ -659,7 +659,7 @@
         <v>2021</v>
       </c>
       <c r="C26" t="n">
-        <v>48.6830916417953</v>
+        <v>46.1</v>
       </c>
     </row>
     <row r="27">
@@ -670,7 +670,7 @@
         <v>2022</v>
       </c>
       <c r="C27" t="n">
-        <v>42.7083485766659</v>
+        <v>36.5</v>
       </c>
     </row>
     <row r="28">
@@ -681,7 +681,7 @@
         <v>2023</v>
       </c>
       <c r="C28" t="n">
-        <v>25.4479797218476</v>
+        <v>18.4</v>
       </c>
     </row>
     <row r="29">
@@ -692,7 +692,7 @@
         <v>2018</v>
       </c>
       <c r="C29" t="n">
-        <v>12.2282961951964</v>
+        <v>11.2</v>
       </c>
     </row>
     <row r="30">
@@ -703,7 +703,7 @@
         <v>2019</v>
       </c>
       <c r="C30" t="n">
-        <v>12.454746124737</v>
+        <v>11.4</v>
       </c>
     </row>
     <row r="31">
@@ -714,7 +714,7 @@
         <v>2020</v>
       </c>
       <c r="C31" t="n">
-        <v>14.2663455610624</v>
+        <v>12.6</v>
       </c>
     </row>
     <row r="32">
@@ -725,7 +725,7 @@
         <v>2021</v>
       </c>
       <c r="C32" t="n">
-        <v>18.1159943632539</v>
+        <v>13.2</v>
       </c>
     </row>
     <row r="33">
@@ -736,7 +736,7 @@
         <v>2022</v>
       </c>
       <c r="C33" t="n">
-        <v>18.7953441518759</v>
+        <v>13.3</v>
       </c>
     </row>
     <row r="34">
@@ -747,7 +747,7 @@
         <v>2015</v>
       </c>
       <c r="C34" t="n">
-        <v>28.3062411925842</v>
+        <v>22.9</v>
       </c>
     </row>
     <row r="35">
@@ -758,7 +758,7 @@
         <v>2016</v>
       </c>
       <c r="C35" t="n">
-        <v>28.7591410516655</v>
+        <v>25.1</v>
       </c>
     </row>
     <row r="36">
@@ -769,7 +769,7 @@
         <v>2017</v>
       </c>
       <c r="C36" t="n">
-        <v>23.0978928131487</v>
+        <v>19</v>
       </c>
     </row>
     <row r="37">
@@ -780,7 +780,7 @@
         <v>2018</v>
       </c>
       <c r="C37" t="n">
-        <v>25.1359421790147</v>
+        <v>20.6</v>
       </c>
     </row>
     <row r="38">
@@ -791,7 +791,7 @@
         <v>2019</v>
       </c>
       <c r="C38" t="n">
-        <v>31.2500902766129</v>
+        <v>25.9</v>
       </c>
     </row>
     <row r="39">
@@ -802,7 +802,7 @@
         <v>2020</v>
       </c>
       <c r="C39" t="n">
-        <v>26.9475416153401</v>
+        <v>21.1</v>
       </c>
     </row>
     <row r="40">
@@ -813,7 +813,7 @@
         <v>2021</v>
       </c>
       <c r="C40" t="n">
-        <v>40.7609873173212</v>
+        <v>37.2</v>
       </c>
     </row>
     <row r="41">
@@ -824,7 +824,7 @@
         <v>2022</v>
       </c>
       <c r="C41" t="n">
-        <v>34.646839219723</v>
+        <v>32.4</v>
       </c>
     </row>
     <row r="42">
@@ -835,7 +835,7 @@
         <v>2023</v>
       </c>
       <c r="C42" t="n">
-        <v>19.7011438700386</v>
+        <v>10.9</v>
       </c>
     </row>
     <row r="43">
@@ -846,7 +846,7 @@
         <v>2015</v>
       </c>
       <c r="C43" t="n">
-        <v>26.7210916857994</v>
+        <v>23.5</v>
       </c>
     </row>
     <row r="44">
@@ -857,7 +857,7 @@
         <v>2016</v>
       </c>
       <c r="C44" t="n">
-        <v>26.0417418971774</v>
+        <v>22.9</v>
       </c>
     </row>
     <row r="45">
@@ -868,7 +868,7 @@
         <v>2017</v>
       </c>
       <c r="C45" t="n">
-        <v>28.9855909812062</v>
+        <v>25.9</v>
       </c>
     </row>
     <row r="46">
@@ -879,7 +879,7 @@
         <v>2018</v>
       </c>
       <c r="C46" t="n">
-        <v>28.7591410516655</v>
+        <v>26.1</v>
       </c>
     </row>
     <row r="47">
@@ -890,7 +890,7 @@
         <v>2019</v>
       </c>
       <c r="C47" t="n">
-        <v>30.5707404879909</v>
+        <v>28.1</v>
       </c>
     </row>
     <row r="48">
@@ -901,7 +901,7 @@
         <v>2020</v>
       </c>
       <c r="C48" t="n">
-        <v>25.8152919676367</v>
+        <v>21.7</v>
       </c>
     </row>
     <row r="49">
@@ -912,7 +912,7 @@
         <v>2021</v>
       </c>
       <c r="C49" t="n">
-        <v>41.2138871764025</v>
+        <v>40.6</v>
       </c>
     </row>
     <row r="50">
@@ -923,7 +923,7 @@
         <v>2022</v>
       </c>
       <c r="C50" t="n">
-        <v>33.5145895720196</v>
+        <v>31.2</v>
       </c>
     </row>
     <row r="51">
@@ -934,7 +934,7 @@
         <v>2023</v>
       </c>
       <c r="C51" t="n">
-        <v>28.3062411925842</v>
+        <v>23.1</v>
       </c>
     </row>
     <row r="52">
@@ -945,7 +945,7 @@
         <v>2015</v>
       </c>
       <c r="C52" t="n">
-        <v>5.8876981680575</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="53">
@@ -956,7 +956,7 @@
         <v>2016</v>
       </c>
       <c r="C53" t="n">
-        <v>11.096046547493</v>
+        <v>6.1</v>
       </c>
     </row>
     <row r="54">
@@ -967,7 +967,7 @@
         <v>2017</v>
       </c>
       <c r="C54" t="n">
-        <v>14.9456953496844</v>
+        <v>6.7</v>
       </c>
     </row>
     <row r="55">
@@ -978,7 +978,7 @@
         <v>2018</v>
       </c>
       <c r="C55" t="n">
-        <v>16.3043949269285</v>
+        <v>7.1</v>
       </c>
     </row>
     <row r="56">
@@ -989,7 +989,7 @@
         <v>2019</v>
       </c>
       <c r="C56" t="n">
-        <v>15.6250451383065</v>
+        <v>7.9</v>
       </c>
     </row>
     <row r="57">
@@ -1000,7 +1000,7 @@
         <v>2020</v>
       </c>
       <c r="C57" t="n">
-        <v>58.6505317510344</v>
+        <v>57.9</v>
       </c>
     </row>
     <row r="58">
@@ -1011,7 +1011,7 @@
         <v>2015</v>
       </c>
       <c r="C58" t="n">
-        <v>14.0048034403521</v>
+        <v>11.6</v>
       </c>
     </row>
     <row r="59">
@@ -1022,7 +1022,7 @@
         <v>2016</v>
       </c>
       <c r="C59" t="n">
-        <v>14.4494003749665</v>
+        <v>12.3</v>
       </c>
     </row>
     <row r="60">
@@ -1033,7 +1033,7 @@
         <v>2017</v>
       </c>
       <c r="C60" t="n">
-        <v>14.2271019076593</v>
+        <v>11.9</v>
       </c>
     </row>
     <row r="61">
@@ -1044,7 +1044,7 @@
         <v>2018</v>
       </c>
       <c r="C61" t="n">
-        <v>14.0048034403521</v>
+        <v>11.4</v>
       </c>
     </row>
     <row r="62">
@@ -1055,7 +1055,7 @@
         <v>2019</v>
       </c>
       <c r="C62" t="n">
-        <v>14.2271019076593</v>
+        <v>11.7</v>
       </c>
     </row>
     <row r="63">
@@ -1066,7 +1066,7 @@
         <v>2020</v>
       </c>
       <c r="C63" t="n">
-        <v>14.6716988422737</v>
+        <v>12</v>
       </c>
     </row>
     <row r="64">
@@ -1077,7 +1077,7 @@
         <v>2021</v>
       </c>
       <c r="C64" t="n">
-        <v>35.3454563018411</v>
+        <v>29</v>
       </c>
     </row>
     <row r="65">
@@ -1088,7 +1088,7 @@
         <v>2022</v>
       </c>
       <c r="C65" t="n">
-        <v>22.674443665332</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="66">
@@ -1099,7 +1099,7 @@
         <v>2023</v>
       </c>
       <c r="C66" t="n">
-        <v>12.0041172345876</v>
+        <v>8.7</v>
       </c>
     </row>
   </sheetData>
